--- a/GiaoDuc/Database/DB Edo v1.xlsx
+++ b/GiaoDuc/Database/DB Edo v1.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\github\BanGiaoNCSw\GiaoDuc\Database\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8F3A39-3B94-4CD7-8E7C-B356853F6143}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="giaoducdientu" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="solienlacdientu" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="tuyensinhdaucap" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="gdTieuHoc" sheetId="4" r:id="rId6"/>
-    <sheet state="visible" name="danh muc" sheetId="5" r:id="rId7"/>
+    <sheet name="ConnectionString" sheetId="6" r:id="rId1"/>
+    <sheet name="giaoducdientu" sheetId="1" r:id="rId2"/>
+    <sheet name="solienlacdientu" sheetId="2" r:id="rId3"/>
+    <sheet name="tuyensinhdaucap" sheetId="3" r:id="rId4"/>
+    <sheet name="gdTieuHoc" sheetId="4" r:id="rId5"/>
+    <sheet name="danh muc" sheetId="5" r:id="rId6"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="385">
   <si>
     <t>Bảng</t>
   </si>
@@ -1116,40 +1126,118 @@
   </si>
   <si>
     <t>Sinh TIMELINE gồm : Chuyển trường, chuyển lớp, xếp lên lớp, thi 10, xin học lại, tuyển sinh</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>Data Source=10.12.1.100:1522/edo.nc.com;User ID=EDU_DEV2;Password=qSTkxjpJ7k</t>
+  </si>
+  <si>
+    <t>Connetion string</t>
+  </si>
+  <si>
+    <t>EDU_DEV2</t>
+  </si>
+  <si>
+    <t>User id</t>
+  </si>
+  <si>
+    <t>qSTkxjpJ7k</t>
+  </si>
+  <si>
+    <t>10.12.1.100:1522</t>
+  </si>
+  <si>
+    <t>edo.nc.com</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>GD_CONNECT</t>
+  </si>
+  <si>
+    <t>DhK7XmGEkqMCgHHCPnUR</t>
+  </si>
+  <si>
+    <t>Data Source=173.168.1.131:1522/esamsbeta;User ID=GD_CONNECT;Password=DhK7XmGEkqMCgHHCPnUR</t>
+  </si>
+  <si>
+    <t>173.168.1.131:1522</t>
+  </si>
+  <si>
+    <t>esamsbeta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-    </font>
-    <font/>
-    <font>
-      <sz val="11.0"/>
-      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1157,90 +1245,456 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEB70460-70F3-4BB6-AB50-6DBA08608A30}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="B2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E2" t="s">
+        <v>376</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D3" t="s">
+        <v>380</v>
+      </c>
+      <c r="E3" t="s">
+        <v>381</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>379</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D283"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="28.0"/>
-    <col customWidth="1" min="3" max="3" width="38.43"/>
-    <col customWidth="1" min="4" max="4" width="89.43"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="3" width="38.44140625" customWidth="1"/>
+    <col min="4" max="4" width="89.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="3" t="s">
@@ -1250,14 +1704,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -1267,7 +1721,7 @@
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="2" t="s">
         <v>5</v>
@@ -1277,7 +1731,7 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="2" t="s">
         <v>7</v>
@@ -1287,7 +1741,7 @@
       </c>
       <c r="D5" s="4"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="2" t="s">
         <v>9</v>
@@ -1297,7 +1751,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="2" t="s">
         <v>11</v>
@@ -1307,7 +1761,7 @@
       </c>
       <c r="D7" s="4"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="2" t="s">
         <v>82</v>
@@ -1319,7 +1773,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="2" t="s">
         <v>85</v>
@@ -1329,7 +1783,7 @@
       </c>
       <c r="D9" s="4"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
         <v>87</v>
@@ -1339,7 +1793,7 @@
       </c>
       <c r="D10" s="4"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
         <v>89</v>
@@ -1351,7 +1805,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="2" t="s">
         <v>92</v>
@@ -1361,7 +1815,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
         <v>94</v>
@@ -1371,7 +1825,7 @@
       </c>
       <c r="D13" s="4"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="2" t="s">
         <v>96</v>
@@ -1381,7 +1835,7 @@
       </c>
       <c r="D14" s="4"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="2" t="s">
         <v>98</v>
@@ -1391,7 +1845,7 @@
       </c>
       <c r="D15" s="4"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="2" t="s">
         <v>100</v>
@@ -1401,7 +1855,7 @@
       </c>
       <c r="D16" s="4"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="2" t="s">
         <v>102</v>
@@ -1411,7 +1865,7 @@
       </c>
       <c r="D17" s="4"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="2" t="s">
         <v>104</v>
@@ -1421,7 +1875,7 @@
       </c>
       <c r="D18" s="4"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="2" t="s">
         <v>106</v>
@@ -1431,7 +1885,7 @@
       </c>
       <c r="D19" s="4"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="2" t="s">
         <v>108</v>
@@ -1443,7 +1897,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
         <v>111</v>
@@ -1453,7 +1907,7 @@
       </c>
       <c r="D21" s="4"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="2" t="s">
         <v>113</v>
@@ -1463,13 +1917,13 @@
       </c>
       <c r="D22" s="4"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>115</v>
       </c>
@@ -1477,7 +1931,7 @@
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="2" t="s">
         <v>116</v>
@@ -1489,7 +1943,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="2"/>
       <c r="C26" s="5" t="s">
@@ -1499,7 +1953,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="2"/>
       <c r="C27" s="5" t="s">
@@ -1509,7 +1963,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="2"/>
       <c r="C28" s="5" t="s">
@@ -1517,7 +1971,7 @@
       </c>
       <c r="D28" s="2"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="2"/>
       <c r="C29" s="5" t="s">
@@ -1525,7 +1979,7 @@
       </c>
       <c r="D29" s="2"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="2"/>
       <c r="C30" s="5" t="s">
@@ -1535,7 +1989,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="2"/>
       <c r="C31" s="5" t="s">
@@ -1545,7 +1999,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="2"/>
       <c r="C32" s="5" t="s">
@@ -1555,7 +2009,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="2"/>
       <c r="C33" s="5" t="s">
@@ -1565,7 +2019,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="2"/>
       <c r="C34" s="5" t="s">
@@ -1573,7 +2027,7 @@
       </c>
       <c r="D34" s="4"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="2"/>
       <c r="C35" s="5" t="s">
@@ -1583,7 +2037,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="2"/>
       <c r="C36" s="5" t="s">
@@ -1593,7 +2047,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="2"/>
       <c r="C37" s="5" t="s">
@@ -1603,31 +2057,31 @@
         <v>139</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="2"/>
       <c r="C38" s="5"/>
       <c r="D38" s="4"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="2"/>
       <c r="C39" s="5"/>
       <c r="D39" s="4"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="2"/>
       <c r="C40" s="5"/>
       <c r="D40" s="4"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="2"/>
       <c r="C41" s="5"/>
       <c r="D41" s="4"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="2" t="s">
         <v>140</v>
@@ -1639,7 +2093,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="2"/>
       <c r="C43" s="5" t="s">
@@ -1649,7 +2103,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="2"/>
       <c r="C44" s="5" t="s">
@@ -1659,7 +2113,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="2"/>
       <c r="C45" s="5" t="s">
@@ -1669,7 +2123,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="2"/>
       <c r="C46" s="5" t="s">
@@ -1679,7 +2133,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="2" t="s">
         <v>150</v>
@@ -1689,7 +2143,7 @@
       </c>
       <c r="D47" s="4"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
@@ -1697,7 +2151,7 @@
       </c>
       <c r="D48" s="4"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
@@ -1705,7 +2159,7 @@
       </c>
       <c r="D49" s="4"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
@@ -1713,7 +2167,7 @@
       </c>
       <c r="D50" s="4"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
@@ -1721,7 +2175,7 @@
       </c>
       <c r="D51" s="4"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="2" t="s">
         <v>156</v>
@@ -1729,55 +2183,55 @@
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="4"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="4"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="4"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="4"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="4"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="4"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="4"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="4"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
       <c r="B61" s="2" t="s">
         <v>161</v>
@@ -1787,49 +2241,49 @@
       </c>
       <c r="D61" s="4"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="4"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="4"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="4"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="4"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="4"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="4"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="4"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
       <c r="B69" s="2" t="s">
         <v>172</v>
@@ -1839,7 +2293,7 @@
       </c>
       <c r="D69" s="4"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2" t="s">
@@ -1847,7 +2301,7 @@
       </c>
       <c r="D70" s="4"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2" t="s">
@@ -1855,7 +2309,7 @@
       </c>
       <c r="D71" s="4"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2" t="s">
@@ -1863,7 +2317,7 @@
       </c>
       <c r="D72" s="4"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2" t="s">
@@ -1871,7 +2325,7 @@
       </c>
       <c r="D73" s="4"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A74" s="4"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2" t="s">
@@ -1879,7 +2333,7 @@
       </c>
       <c r="D74" s="4"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A75" s="4"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2" t="s">
@@ -1887,7 +2341,7 @@
       </c>
       <c r="D75" s="4"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A76" s="4"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2" t="s">
@@ -1895,7 +2349,7 @@
       </c>
       <c r="D76" s="4"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A77" s="4"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2" t="s">
@@ -1903,7 +2357,7 @@
       </c>
       <c r="D77" s="4"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A78" s="4"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2" t="s">
@@ -1911,7 +2365,7 @@
       </c>
       <c r="D78" s="4"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A79" s="4"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2" t="s">
@@ -1919,7 +2373,7 @@
       </c>
       <c r="D79" s="4"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2" t="s">
@@ -1927,7 +2381,7 @@
       </c>
       <c r="D80" s="4"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A81" s="4"/>
       <c r="B81" s="2" t="s">
         <v>195</v>
@@ -1937,7 +2391,7 @@
       </c>
       <c r="D81" s="4"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A82" s="4"/>
       <c r="B82" s="2"/>
       <c r="C82" s="5" t="s">
@@ -1945,7 +2399,7 @@
       </c>
       <c r="D82" s="4"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A83" s="4"/>
       <c r="B83" s="2"/>
       <c r="C83" s="5" t="s">
@@ -1953,7 +2407,7 @@
       </c>
       <c r="D83" s="4"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A84" s="4"/>
       <c r="B84" s="2"/>
       <c r="C84" s="5" t="s">
@@ -1961,7 +2415,7 @@
       </c>
       <c r="D84" s="4"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A85" s="4"/>
       <c r="B85" s="2"/>
       <c r="C85" s="5" t="s">
@@ -1969,7 +2423,7 @@
       </c>
       <c r="D85" s="4"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A86" s="4"/>
       <c r="B86" s="2"/>
       <c r="C86" s="5" t="s">
@@ -1977,7 +2431,7 @@
       </c>
       <c r="D86" s="4"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A87" s="4"/>
       <c r="B87" s="2"/>
       <c r="C87" s="5" t="s">
@@ -1985,7 +2439,7 @@
       </c>
       <c r="D87" s="4"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A88" s="4"/>
       <c r="B88" s="2"/>
       <c r="C88" s="5" t="s">
@@ -1993,7 +2447,7 @@
       </c>
       <c r="D88" s="4"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A89" s="4"/>
       <c r="B89" s="2"/>
       <c r="C89" s="5" t="s">
@@ -2001,7 +2455,7 @@
       </c>
       <c r="D89" s="4"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A90" s="4"/>
       <c r="B90" s="2"/>
       <c r="C90" s="5" t="s">
@@ -2009,7 +2463,7 @@
       </c>
       <c r="D90" s="4"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A91" s="4"/>
       <c r="B91" s="2"/>
       <c r="C91" s="5" t="s">
@@ -2017,7 +2471,7 @@
       </c>
       <c r="D91" s="4"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A92" s="4"/>
       <c r="B92" s="2"/>
       <c r="C92" s="5" t="s">
@@ -2025,7 +2479,7 @@
       </c>
       <c r="D92" s="4"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A93" s="4"/>
       <c r="B93" s="2"/>
       <c r="C93" s="5" t="s">
@@ -2033,7 +2487,7 @@
       </c>
       <c r="D93" s="4"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A94" s="4"/>
       <c r="B94" s="2"/>
       <c r="C94" s="5" t="s">
@@ -2041,7 +2495,7 @@
       </c>
       <c r="D94" s="4"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A95" s="4"/>
       <c r="B95" s="2"/>
       <c r="C95" s="5" t="s">
@@ -2049,7 +2503,7 @@
       </c>
       <c r="D95" s="4"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A96" s="4"/>
       <c r="B96" s="2"/>
       <c r="C96" s="5" t="s">
@@ -2057,7 +2511,7 @@
       </c>
       <c r="D96" s="4"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A97" s="4"/>
       <c r="B97" s="2"/>
       <c r="C97" s="5" t="s">
@@ -2065,7 +2519,7 @@
       </c>
       <c r="D97" s="4"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A98" s="4"/>
       <c r="B98" s="2"/>
       <c r="C98" s="5" t="s">
@@ -2073,7 +2527,7 @@
       </c>
       <c r="D98" s="4"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A99" s="4"/>
       <c r="B99" s="2"/>
       <c r="C99" s="5" t="s">
@@ -2081,7 +2535,7 @@
       </c>
       <c r="D99" s="4"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A100" s="4"/>
       <c r="B100" s="2"/>
       <c r="C100" s="5" t="s">
@@ -2089,7 +2543,7 @@
       </c>
       <c r="D100" s="4"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A101" s="4"/>
       <c r="B101" s="2"/>
       <c r="C101" s="5" t="s">
@@ -2097,7 +2551,7 @@
       </c>
       <c r="D101" s="4"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A102" s="4"/>
       <c r="B102" s="2"/>
       <c r="C102" s="5" t="s">
@@ -2105,7 +2559,7 @@
       </c>
       <c r="D102" s="4"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A103" s="4"/>
       <c r="B103" s="2"/>
       <c r="C103" s="5" t="s">
@@ -2113,7 +2567,7 @@
       </c>
       <c r="D103" s="4"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A104" s="4"/>
       <c r="B104" s="2"/>
       <c r="C104" s="5" t="s">
@@ -2121,7 +2575,7 @@
       </c>
       <c r="D104" s="4"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A105" s="4"/>
       <c r="B105" s="2" t="s">
         <v>231</v>
@@ -2131,7 +2585,7 @@
       </c>
       <c r="D105" s="4"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A106" s="4"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2" t="s">
@@ -2139,7 +2593,7 @@
       </c>
       <c r="D106" s="4"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A107" s="4"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2" t="s">
@@ -2147,7 +2601,7 @@
       </c>
       <c r="D107" s="4"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A108" s="4"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2" t="s">
@@ -2155,7 +2609,7 @@
       </c>
       <c r="D108" s="4"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A109" s="4"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2" t="s">
@@ -2163,19 +2617,19 @@
       </c>
       <c r="D109" s="4"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A110" s="4"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="4"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A111" s="4"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="4"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A112" s="4"/>
       <c r="B112" s="2" t="s">
         <v>237</v>
@@ -2185,31 +2639,31 @@
       </c>
       <c r="D112" s="4"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A113" s="4"/>
       <c r="B113" s="2"/>
       <c r="C113" s="5"/>
       <c r="D113" s="4"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A114" s="4"/>
       <c r="B114" s="2"/>
       <c r="C114" s="5"/>
       <c r="D114" s="4"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A115" s="4"/>
       <c r="B115" s="2"/>
       <c r="C115" s="5"/>
       <c r="D115" s="4"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A116" s="4"/>
       <c r="B116" s="2"/>
       <c r="C116" s="5"/>
       <c r="D116" s="4"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A117" s="4"/>
       <c r="B117" s="2" t="s">
         <v>226</v>
@@ -2219,7 +2673,7 @@
       </c>
       <c r="D117" s="4"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A118" s="4"/>
       <c r="B118" s="2"/>
       <c r="C118" s="5" t="s">
@@ -2227,7 +2681,7 @@
       </c>
       <c r="D118" s="4"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A119" s="4"/>
       <c r="B119" s="2"/>
       <c r="C119" s="5" t="s">
@@ -2235,7 +2689,7 @@
       </c>
       <c r="D119" s="4"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A120" s="4"/>
       <c r="B120" s="2"/>
       <c r="C120" s="5" t="s">
@@ -2243,7 +2697,7 @@
       </c>
       <c r="D120" s="4"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A121" s="4"/>
       <c r="B121" s="2"/>
       <c r="C121" s="5" t="s">
@@ -2251,7 +2705,7 @@
       </c>
       <c r="D121" s="4"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A122" s="4"/>
       <c r="B122" s="2"/>
       <c r="C122" s="5" t="s">
@@ -2259,7 +2713,7 @@
       </c>
       <c r="D122" s="4"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A123" s="4"/>
       <c r="B123" s="2"/>
       <c r="C123" s="5" t="s">
@@ -2267,7 +2721,7 @@
       </c>
       <c r="D123" s="4"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A124" s="4"/>
       <c r="B124" s="2"/>
       <c r="C124" s="5" t="s">
@@ -2275,7 +2729,7 @@
       </c>
       <c r="D124" s="4"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A125" s="4"/>
       <c r="B125" s="2"/>
       <c r="C125" s="5" t="s">
@@ -2283,7 +2737,7 @@
       </c>
       <c r="D125" s="4"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A126" s="4"/>
       <c r="B126" s="2"/>
       <c r="C126" s="5" t="s">
@@ -2291,7 +2745,7 @@
       </c>
       <c r="D126" s="4"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A127" s="4"/>
       <c r="B127" s="2"/>
       <c r="C127" s="5" t="s">
@@ -2299,7 +2753,7 @@
       </c>
       <c r="D127" s="4"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A128" s="4"/>
       <c r="B128" s="2"/>
       <c r="C128" s="5" t="s">
@@ -2307,7 +2761,7 @@
       </c>
       <c r="D128" s="4"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A129" s="4"/>
       <c r="B129" s="2"/>
       <c r="C129" s="5" t="s">
@@ -2315,7 +2769,7 @@
       </c>
       <c r="D129" s="4"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A130" s="4"/>
       <c r="B130" s="2"/>
       <c r="C130" s="5" t="s">
@@ -2323,7 +2777,7 @@
       </c>
       <c r="D130" s="4"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A131" s="4"/>
       <c r="B131" s="2"/>
       <c r="C131" s="5" t="s">
@@ -2331,19 +2785,19 @@
       </c>
       <c r="D131" s="4"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A132" s="4"/>
       <c r="B132" s="2"/>
       <c r="C132" s="5"/>
       <c r="D132" s="4"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A133" s="4"/>
       <c r="B133" s="2"/>
       <c r="C133" s="5"/>
       <c r="D133" s="4"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A134" s="4"/>
       <c r="B134" s="2" t="s">
         <v>254</v>
@@ -2353,7 +2807,7 @@
       </c>
       <c r="D134" s="4"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A135" s="4"/>
       <c r="B135" s="2"/>
       <c r="C135" s="5" t="s">
@@ -2361,7 +2815,7 @@
       </c>
       <c r="D135" s="4"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A136" s="4"/>
       <c r="B136" s="2"/>
       <c r="C136" s="5" t="s">
@@ -2369,7 +2823,7 @@
       </c>
       <c r="D136" s="4"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A137" s="4"/>
       <c r="B137" s="2"/>
       <c r="C137" s="5" t="s">
@@ -2377,7 +2831,7 @@
       </c>
       <c r="D137" s="4"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A138" s="4"/>
       <c r="B138" s="2"/>
       <c r="C138" s="5" t="s">
@@ -2385,7 +2839,7 @@
       </c>
       <c r="D138" s="4"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A139" s="4"/>
       <c r="B139" s="2"/>
       <c r="C139" s="5" t="s">
@@ -2393,7 +2847,7 @@
       </c>
       <c r="D139" s="4"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A140" s="4"/>
       <c r="B140" s="2"/>
       <c r="C140" s="5" t="s">
@@ -2401,7 +2855,7 @@
       </c>
       <c r="D140" s="4"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A141" s="4"/>
       <c r="B141" s="2"/>
       <c r="C141" s="5" t="s">
@@ -2409,7 +2863,7 @@
       </c>
       <c r="D141" s="4"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A142" s="4"/>
       <c r="B142" s="2"/>
       <c r="C142" s="5" t="s">
@@ -2417,7 +2871,7 @@
       </c>
       <c r="D142" s="4"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A143" s="4"/>
       <c r="B143" s="2"/>
       <c r="C143" s="5" t="s">
@@ -2425,7 +2879,7 @@
       </c>
       <c r="D143" s="4"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A144" s="4"/>
       <c r="B144" s="2"/>
       <c r="C144" s="5" t="s">
@@ -2433,7 +2887,7 @@
       </c>
       <c r="D144" s="4"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A145" s="4"/>
       <c r="B145" s="2"/>
       <c r="C145" s="5" t="s">
@@ -2441,7 +2895,7 @@
       </c>
       <c r="D145" s="4"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A146" s="4"/>
       <c r="B146" s="2"/>
       <c r="C146" s="5" t="s">
@@ -2449,7 +2903,7 @@
       </c>
       <c r="D146" s="4"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A147" s="4"/>
       <c r="B147" s="2"/>
       <c r="C147" s="5" t="s">
@@ -2457,7 +2911,7 @@
       </c>
       <c r="D147" s="4"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A148" s="4"/>
       <c r="B148" s="2"/>
       <c r="C148" s="5" t="s">
@@ -2465,7 +2919,7 @@
       </c>
       <c r="D148" s="4"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A149" s="4"/>
       <c r="B149" s="2"/>
       <c r="C149" s="5" t="s">
@@ -2473,7 +2927,7 @@
       </c>
       <c r="D149" s="4"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A150" s="4"/>
       <c r="B150" s="2"/>
       <c r="C150" s="5" t="s">
@@ -2481,7 +2935,7 @@
       </c>
       <c r="D150" s="4"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A151" s="4"/>
       <c r="B151" s="2"/>
       <c r="C151" s="5" t="s">
@@ -2489,25 +2943,25 @@
       </c>
       <c r="D151" s="4"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A152" s="4"/>
       <c r="B152" s="2"/>
       <c r="C152" s="5"/>
       <c r="D152" s="4"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A153" s="4"/>
       <c r="B153" s="2"/>
       <c r="C153" s="5"/>
       <c r="D153" s="4"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A154" s="4"/>
       <c r="B154" s="2"/>
       <c r="C154" s="5"/>
       <c r="D154" s="4"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A155" s="4"/>
       <c r="B155" s="2" t="s">
         <v>273</v>
@@ -2517,7 +2971,7 @@
       </c>
       <c r="D155" s="4"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A156" s="4"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2" t="s">
@@ -2525,7 +2979,7 @@
       </c>
       <c r="D156" s="4"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A157" s="4"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2" t="s">
@@ -2533,7 +2987,7 @@
       </c>
       <c r="D157" s="4"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A158" s="4"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2" t="s">
@@ -2541,7 +2995,7 @@
       </c>
       <c r="D158" s="4"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A159" s="4"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2" t="s">
@@ -2549,7 +3003,7 @@
       </c>
       <c r="D159" s="4"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A160" s="4"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2" t="s">
@@ -2557,7 +3011,7 @@
       </c>
       <c r="D160" s="4"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A161" s="4"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2" t="s">
@@ -2565,7 +3019,7 @@
       </c>
       <c r="D161" s="4"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A162" s="4"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2" t="s">
@@ -2573,7 +3027,7 @@
       </c>
       <c r="D162" s="4"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A163" s="4"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2" t="s">
@@ -2581,7 +3035,7 @@
       </c>
       <c r="D163" s="4"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A164" s="4"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2" t="s">
@@ -2589,7 +3043,7 @@
       </c>
       <c r="D164" s="4"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A165" s="4"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2" t="s">
@@ -2597,7 +3051,7 @@
       </c>
       <c r="D165" s="4"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A166" s="4"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2" t="s">
@@ -2605,7 +3059,7 @@
       </c>
       <c r="D166" s="4"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A167" s="4"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2" t="s">
@@ -2613,7 +3067,7 @@
       </c>
       <c r="D167" s="4"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A168" s="4"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2" t="s">
@@ -2621,7 +3075,7 @@
       </c>
       <c r="D168" s="4"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A169" s="4"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2" t="s">
@@ -2629,7 +3083,7 @@
       </c>
       <c r="D169" s="4"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A170" s="4"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2" t="s">
@@ -2637,7 +3091,7 @@
       </c>
       <c r="D170" s="4"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A171" s="4"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2" t="s">
@@ -2645,55 +3099,55 @@
       </c>
       <c r="D171" s="4"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A172" s="4"/>
       <c r="B172" s="2"/>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A173" s="4"/>
       <c r="B173" s="2"/>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A174" s="4"/>
       <c r="B174" s="2"/>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A175" s="4"/>
       <c r="B175" s="2"/>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A176" s="4"/>
       <c r="B176" s="2"/>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A177" s="4"/>
       <c r="B177" s="2"/>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A178" s="4"/>
       <c r="B178" s="2"/>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A179" s="4"/>
       <c r="B179" s="2"/>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A180" s="4"/>
       <c r="B180" s="2" t="s">
         <v>291</v>
@@ -2703,43 +3157,43 @@
       </c>
       <c r="D180" s="4"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A181" s="4"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
       <c r="D181" s="4"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A182" s="4"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
       <c r="D182" s="4"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A183" s="4"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
       <c r="D183" s="4"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A184" s="4"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
       <c r="D184" s="4"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A185" s="4"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
       <c r="D185" s="4"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A186" s="4"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
       <c r="D186" s="4"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A187" s="4"/>
       <c r="B187" s="2" t="s">
         <v>292</v>
@@ -2749,31 +3203,31 @@
       </c>
       <c r="D187" s="4"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A188" s="4"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A189" s="4"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A190" s="4"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A191" s="4"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A192" s="4"/>
       <c r="B192" s="2" t="s">
         <v>293</v>
@@ -2781,31 +3235,31 @@
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A193" s="4"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
       <c r="D193" s="4"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A194" s="4"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
       <c r="D194" s="4"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A195" s="4"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
       <c r="D195" s="4"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A196" s="4"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
       <c r="D196" s="4"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A197" s="4"/>
       <c r="B197" s="2" t="s">
         <v>294</v>
@@ -2815,7 +3269,7 @@
       </c>
       <c r="D197" s="4"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A198" s="4"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2" t="s">
@@ -2823,7 +3277,7 @@
       </c>
       <c r="D198" s="4"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A199" s="4"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2" t="s">
@@ -2831,7 +3285,7 @@
       </c>
       <c r="D199" s="4"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A200" s="4"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2" t="s">
@@ -2839,7 +3293,7 @@
       </c>
       <c r="D200" s="4"/>
     </row>
-    <row r="201">
+    <row r="201" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A201" s="4"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2" t="s">
@@ -2847,25 +3301,25 @@
       </c>
       <c r="D201" s="4"/>
     </row>
-    <row r="202">
+    <row r="202" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A202" s="4"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
       <c r="D202" s="4"/>
     </row>
-    <row r="203">
+    <row r="203" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A203" s="4"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
       <c r="D203" s="4"/>
     </row>
-    <row r="204">
+    <row r="204" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A204" s="4"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
       <c r="D204" s="4"/>
     </row>
-    <row r="205">
+    <row r="205" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A205" s="4"/>
       <c r="B205" s="2" t="s">
         <v>299</v>
@@ -2875,7 +3329,7 @@
       </c>
       <c r="D205" s="4"/>
     </row>
-    <row r="206">
+    <row r="206" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A206" s="4"/>
       <c r="B206" s="2"/>
       <c r="C206" s="5" t="s">
@@ -2883,7 +3337,7 @@
       </c>
       <c r="D206" s="4"/>
     </row>
-    <row r="207">
+    <row r="207" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A207" s="4"/>
       <c r="B207" s="2"/>
       <c r="C207" s="5" t="s">
@@ -2891,7 +3345,7 @@
       </c>
       <c r="D207" s="4"/>
     </row>
-    <row r="208">
+    <row r="208" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A208" s="4"/>
       <c r="B208" s="2"/>
       <c r="C208" s="5" t="s">
@@ -2899,13 +3353,13 @@
       </c>
       <c r="D208" s="4"/>
     </row>
-    <row r="209">
+    <row r="209" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A209" s="4"/>
       <c r="B209" s="2"/>
       <c r="C209" s="5"/>
       <c r="D209" s="4"/>
     </row>
-    <row r="210">
+    <row r="210" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A210" s="4"/>
       <c r="B210" s="2" t="s">
         <v>304</v>
@@ -2915,7 +3369,7 @@
       </c>
       <c r="D210" s="4"/>
     </row>
-    <row r="211">
+    <row r="211" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A211" s="4"/>
       <c r="B211" s="2"/>
       <c r="C211" s="5" t="s">
@@ -2923,7 +3377,7 @@
       </c>
       <c r="D211" s="4"/>
     </row>
-    <row r="212">
+    <row r="212" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A212" s="4"/>
       <c r="B212" s="2"/>
       <c r="C212" s="5" t="s">
@@ -2931,7 +3385,7 @@
       </c>
       <c r="D212" s="4"/>
     </row>
-    <row r="213">
+    <row r="213" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A213" s="4"/>
       <c r="B213" s="2"/>
       <c r="C213" s="5" t="s">
@@ -2939,7 +3393,7 @@
       </c>
       <c r="D213" s="4"/>
     </row>
-    <row r="214">
+    <row r="214" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A214" s="4"/>
       <c r="B214" s="2"/>
       <c r="C214" s="5" t="s">
@@ -2947,7 +3401,7 @@
       </c>
       <c r="D214" s="4"/>
     </row>
-    <row r="215">
+    <row r="215" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A215" s="4"/>
       <c r="B215" s="2"/>
       <c r="C215" s="5" t="s">
@@ -2955,7 +3409,7 @@
       </c>
       <c r="D215" s="4"/>
     </row>
-    <row r="216">
+    <row r="216" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A216" s="4"/>
       <c r="B216" s="2"/>
       <c r="C216" s="5" t="s">
@@ -2963,7 +3417,7 @@
       </c>
       <c r="D216" s="4"/>
     </row>
-    <row r="217">
+    <row r="217" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A217" s="4"/>
       <c r="B217" s="2"/>
       <c r="C217" s="5" t="s">
@@ -2971,7 +3425,7 @@
       </c>
       <c r="D217" s="4"/>
     </row>
-    <row r="218">
+    <row r="218" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A218" s="4"/>
       <c r="B218" s="2"/>
       <c r="C218" s="5" t="s">
@@ -2979,7 +3433,7 @@
       </c>
       <c r="D218" s="4"/>
     </row>
-    <row r="219">
+    <row r="219" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A219" s="4"/>
       <c r="B219" s="2"/>
       <c r="C219" s="5" t="s">
@@ -2987,7 +3441,7 @@
       </c>
       <c r="D219" s="4"/>
     </row>
-    <row r="220">
+    <row r="220" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A220" s="4"/>
       <c r="B220" s="2"/>
       <c r="C220" s="5" t="s">
@@ -2995,7 +3449,7 @@
       </c>
       <c r="D220" s="4"/>
     </row>
-    <row r="221">
+    <row r="221" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A221" s="4"/>
       <c r="B221" s="2"/>
       <c r="C221" s="5" t="s">
@@ -3003,7 +3457,7 @@
       </c>
       <c r="D221" s="4"/>
     </row>
-    <row r="222">
+    <row r="222" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A222" s="4"/>
       <c r="B222" s="2"/>
       <c r="C222" s="5" t="s">
@@ -3011,7 +3465,7 @@
       </c>
       <c r="D222" s="4"/>
     </row>
-    <row r="223">
+    <row r="223" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A223" s="4"/>
       <c r="B223" s="2"/>
       <c r="C223" s="5" t="s">
@@ -3019,7 +3473,7 @@
       </c>
       <c r="D223" s="4"/>
     </row>
-    <row r="224">
+    <row r="224" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A224" s="4"/>
       <c r="B224" s="2"/>
       <c r="C224" s="5" t="s">
@@ -3027,7 +3481,7 @@
       </c>
       <c r="D224" s="4"/>
     </row>
-    <row r="225">
+    <row r="225" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A225" s="4"/>
       <c r="B225" s="2"/>
       <c r="C225" s="5" t="s">
@@ -3035,7 +3489,7 @@
       </c>
       <c r="D225" s="4"/>
     </row>
-    <row r="226">
+    <row r="226" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A226" s="4"/>
       <c r="B226" s="2"/>
       <c r="C226" s="5" t="s">
@@ -3043,7 +3497,7 @@
       </c>
       <c r="D226" s="4"/>
     </row>
-    <row r="227">
+    <row r="227" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A227" s="4"/>
       <c r="B227" s="2"/>
       <c r="C227" s="5" t="s">
@@ -3051,7 +3505,7 @@
       </c>
       <c r="D227" s="4"/>
     </row>
-    <row r="228">
+    <row r="228" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A228" s="4"/>
       <c r="B228" s="2"/>
       <c r="C228" s="5" t="s">
@@ -3059,7 +3513,7 @@
       </c>
       <c r="D228" s="4"/>
     </row>
-    <row r="229">
+    <row r="229" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A229" s="4"/>
       <c r="B229" s="2"/>
       <c r="C229" s="5" t="s">
@@ -3067,7 +3521,7 @@
       </c>
       <c r="D229" s="4"/>
     </row>
-    <row r="230">
+    <row r="230" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A230" s="4"/>
       <c r="B230" s="2"/>
       <c r="C230" s="5" t="s">
@@ -3075,7 +3529,7 @@
       </c>
       <c r="D230" s="4"/>
     </row>
-    <row r="231">
+    <row r="231" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A231" s="4"/>
       <c r="B231" s="2"/>
       <c r="C231" s="5" t="s">
@@ -3083,7 +3537,7 @@
       </c>
       <c r="D231" s="4"/>
     </row>
-    <row r="232">
+    <row r="232" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A232" s="4"/>
       <c r="B232" s="2"/>
       <c r="C232" s="5" t="s">
@@ -3091,7 +3545,7 @@
       </c>
       <c r="D232" s="4"/>
     </row>
-    <row r="233">
+    <row r="233" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A233" s="4"/>
       <c r="B233" s="2"/>
       <c r="C233" s="5" t="s">
@@ -3099,7 +3553,7 @@
       </c>
       <c r="D233" s="4"/>
     </row>
-    <row r="234">
+    <row r="234" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A234" s="4"/>
       <c r="B234" s="2"/>
       <c r="C234" s="5" t="s">
@@ -3107,7 +3561,7 @@
       </c>
       <c r="D234" s="4"/>
     </row>
-    <row r="235">
+    <row r="235" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A235" s="4"/>
       <c r="B235" s="2"/>
       <c r="C235" s="5" t="s">
@@ -3115,7 +3569,7 @@
       </c>
       <c r="D235" s="4"/>
     </row>
-    <row r="236">
+    <row r="236" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A236" s="4"/>
       <c r="B236" s="2"/>
       <c r="C236" s="5" t="s">
@@ -3123,7 +3577,7 @@
       </c>
       <c r="D236" s="4"/>
     </row>
-    <row r="237">
+    <row r="237" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A237" s="4"/>
       <c r="B237" s="2"/>
       <c r="C237" s="5" t="s">
@@ -3131,7 +3585,7 @@
       </c>
       <c r="D237" s="4"/>
     </row>
-    <row r="238">
+    <row r="238" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A238" s="4"/>
       <c r="B238" s="2"/>
       <c r="C238" s="5" t="s">
@@ -3139,7 +3593,7 @@
       </c>
       <c r="D238" s="4"/>
     </row>
-    <row r="239">
+    <row r="239" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A239" s="4"/>
       <c r="B239" s="2"/>
       <c r="C239" s="5" t="s">
@@ -3147,7 +3601,7 @@
       </c>
       <c r="D239" s="4"/>
     </row>
-    <row r="240">
+    <row r="240" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A240" s="4"/>
       <c r="B240" s="2"/>
       <c r="C240" s="5" t="s">
@@ -3155,7 +3609,7 @@
       </c>
       <c r="D240" s="4"/>
     </row>
-    <row r="241">
+    <row r="241" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A241" s="4"/>
       <c r="B241" s="2"/>
       <c r="C241" s="5" t="s">
@@ -3163,7 +3617,7 @@
       </c>
       <c r="D241" s="4"/>
     </row>
-    <row r="242">
+    <row r="242" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A242" s="4"/>
       <c r="B242" s="2"/>
       <c r="C242" s="5" t="s">
@@ -3171,7 +3625,7 @@
       </c>
       <c r="D242" s="4"/>
     </row>
-    <row r="243">
+    <row r="243" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A243" s="4"/>
       <c r="B243" s="2"/>
       <c r="C243" s="5" t="s">
@@ -3179,31 +3633,31 @@
       </c>
       <c r="D243" s="4"/>
     </row>
-    <row r="244">
+    <row r="244" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A244" s="4"/>
       <c r="B244" s="2"/>
       <c r="C244" s="5"/>
       <c r="D244" s="4"/>
     </row>
-    <row r="245">
+    <row r="245" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A245" s="4"/>
       <c r="B245" s="2"/>
       <c r="C245" s="5"/>
       <c r="D245" s="4"/>
     </row>
-    <row r="246">
+    <row r="246" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A246" s="4"/>
       <c r="B246" s="2"/>
       <c r="C246" s="5"/>
       <c r="D246" s="4"/>
     </row>
-    <row r="247">
+    <row r="247" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A247" s="4"/>
       <c r="B247" s="2"/>
       <c r="C247" s="5"/>
       <c r="D247" s="4"/>
     </row>
-    <row r="248">
+    <row r="248" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A248" s="4"/>
       <c r="B248" s="2" t="s">
         <v>339</v>
@@ -3213,7 +3667,7 @@
       </c>
       <c r="D248" s="4"/>
     </row>
-    <row r="249">
+    <row r="249" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A249" s="4"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2" t="s">
@@ -3221,7 +3675,7 @@
       </c>
       <c r="D249" s="4"/>
     </row>
-    <row r="250">
+    <row r="250" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A250" s="4"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2" t="s">
@@ -3229,7 +3683,7 @@
       </c>
       <c r="D250" s="4"/>
     </row>
-    <row r="251">
+    <row r="251" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A251" s="4"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2" t="s">
@@ -3237,7 +3691,7 @@
       </c>
       <c r="D251" s="4"/>
     </row>
-    <row r="252">
+    <row r="252" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A252" s="4"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2" t="s">
@@ -3245,7 +3699,7 @@
       </c>
       <c r="D252" s="4"/>
     </row>
-    <row r="253">
+    <row r="253" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A253" s="4"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2" t="s">
@@ -3253,7 +3707,7 @@
       </c>
       <c r="D253" s="4"/>
     </row>
-    <row r="254">
+    <row r="254" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A254" s="4"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2" t="s">
@@ -3261,7 +3715,7 @@
       </c>
       <c r="D254" s="4"/>
     </row>
-    <row r="255">
+    <row r="255" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A255" s="4"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2" t="s">
@@ -3269,7 +3723,7 @@
       </c>
       <c r="D255" s="4"/>
     </row>
-    <row r="256">
+    <row r="256" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A256" s="4"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2" t="s">
@@ -3277,7 +3731,7 @@
       </c>
       <c r="D256" s="4"/>
     </row>
-    <row r="257">
+    <row r="257" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A257" s="4"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2" t="s">
@@ -3285,7 +3739,7 @@
       </c>
       <c r="D257" s="4"/>
     </row>
-    <row r="258">
+    <row r="258" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A258" s="4"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2" t="s">
@@ -3293,7 +3747,7 @@
       </c>
       <c r="D258" s="4"/>
     </row>
-    <row r="259">
+    <row r="259" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A259" s="4"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2" t="s">
@@ -3301,7 +3755,7 @@
       </c>
       <c r="D259" s="4"/>
     </row>
-    <row r="260">
+    <row r="260" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A260" s="4"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2" t="s">
@@ -3309,7 +3763,7 @@
       </c>
       <c r="D260" s="4"/>
     </row>
-    <row r="261">
+    <row r="261" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A261" s="4"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2" t="s">
@@ -3317,7 +3771,7 @@
       </c>
       <c r="D261" s="4"/>
     </row>
-    <row r="262">
+    <row r="262" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A262" s="4"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2" t="s">
@@ -3325,7 +3779,7 @@
       </c>
       <c r="D262" s="4"/>
     </row>
-    <row r="263">
+    <row r="263" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A263" s="4"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2" t="s">
@@ -3333,7 +3787,7 @@
       </c>
       <c r="D263" s="4"/>
     </row>
-    <row r="264">
+    <row r="264" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A264" s="4"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2" t="s">
@@ -3341,7 +3795,7 @@
       </c>
       <c r="D264" s="4"/>
     </row>
-    <row r="265">
+    <row r="265" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A265" s="4"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2" t="s">
@@ -3349,7 +3803,7 @@
       </c>
       <c r="D265" s="4"/>
     </row>
-    <row r="266">
+    <row r="266" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A266" s="4"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2" t="s">
@@ -3357,13 +3811,13 @@
       </c>
       <c r="D266" s="4"/>
     </row>
-    <row r="267">
+    <row r="267" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A267" s="4"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
       <c r="D267" s="4"/>
     </row>
-    <row r="268">
+    <row r="268" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A268" s="4"/>
       <c r="B268" s="2" t="s">
         <v>358</v>
@@ -3373,7 +3827,7 @@
       </c>
       <c r="D268" s="4"/>
     </row>
-    <row r="269">
+    <row r="269" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A269" s="4"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2" t="s">
@@ -3381,25 +3835,25 @@
       </c>
       <c r="D269" s="4"/>
     </row>
-    <row r="270">
+    <row r="270" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A270" s="4"/>
       <c r="B270" s="2"/>
       <c r="C270" s="4"/>
       <c r="D270" s="4"/>
     </row>
-    <row r="271">
+    <row r="271" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A271" s="4"/>
       <c r="B271" s="2"/>
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
     </row>
-    <row r="272">
+    <row r="272" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A272" s="4"/>
       <c r="B272" s="2"/>
       <c r="C272" s="4"/>
       <c r="D272" s="4"/>
     </row>
-    <row r="273">
+    <row r="273" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A273" s="4"/>
       <c r="B273" s="2" t="s">
         <v>361</v>
@@ -3407,31 +3861,31 @@
       <c r="C273" s="4"/>
       <c r="D273" s="4"/>
     </row>
-    <row r="274">
+    <row r="274" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A274" s="4"/>
       <c r="B274" s="2"/>
       <c r="C274" s="4"/>
       <c r="D274" s="4"/>
     </row>
-    <row r="275">
+    <row r="275" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A275" s="4"/>
       <c r="B275" s="2"/>
       <c r="C275" s="4"/>
       <c r="D275" s="4"/>
     </row>
-    <row r="276">
+    <row r="276" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A276" s="4"/>
       <c r="B276" s="2"/>
       <c r="C276" s="4"/>
       <c r="D276" s="4"/>
     </row>
-    <row r="277">
+    <row r="277" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A277" s="4"/>
       <c r="B277" s="2"/>
       <c r="C277" s="4"/>
       <c r="D277" s="4"/>
     </row>
-    <row r="278">
+    <row r="278" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A278" s="4"/>
       <c r="B278" s="2" t="s">
         <v>362</v>
@@ -3441,7 +3895,7 @@
       </c>
       <c r="D278" s="4"/>
     </row>
-    <row r="279">
+    <row r="279" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A279" s="4"/>
       <c r="B279" s="2"/>
       <c r="C279" s="5" t="s">
@@ -3449,25 +3903,25 @@
       </c>
       <c r="D279" s="2"/>
     </row>
-    <row r="280">
+    <row r="280" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A280" s="4"/>
       <c r="B280" s="2"/>
       <c r="C280" s="5"/>
       <c r="D280" s="2"/>
     </row>
-    <row r="281">
+    <row r="281" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A281" s="4"/>
       <c r="B281" s="2"/>
       <c r="C281" s="5"/>
       <c r="D281" s="2"/>
     </row>
-    <row r="282">
+    <row r="282" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A282" s="4"/>
       <c r="B282" s="2"/>
       <c r="C282" s="5"/>
       <c r="D282" s="2"/>
     </row>
-    <row r="283">
+    <row r="283" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A283" s="4"/>
       <c r="B283" s="2" t="s">
         <v>365</v>
@@ -3480,290 +3934,292 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="2"/>
       <c r="C2" s="5"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="2"/>
       <c r="C3" s="5"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="2"/>
       <c r="C7" s="5"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="2"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="2"/>
       <c r="C11" s="5"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="2"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="4"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="4"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="2"/>
       <c r="C19" s="5"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="2"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="2"/>
       <c r="C24" s="7"/>
       <c r="D24" s="4"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="2"/>
       <c r="C25" s="5"/>
       <c r="D25" s="4"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="2"/>
       <c r="C26" s="8"/>
       <c r="D26" s="4"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="2"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="4"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="4"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="4"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="2"/>
       <c r="C31" s="5"/>
       <c r="D31" s="4"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="4"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="2"/>
       <c r="C33" s="5"/>
       <c r="D33" s="4"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="2"/>
       <c r="C34" s="5"/>
       <c r="D34" s="4"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="2"/>
       <c r="C35" s="5"/>
       <c r="D35" s="4"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="2"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="4"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-    </row>
-    <row r="39">
+      <c r="C38" s="10"/>
+      <c r="D38" s="11"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="4"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="4"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="2"/>
       <c r="C41" s="5"/>
       <c r="D41" s="4"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="2"/>
       <c r="C42" s="5"/>
       <c r="D42" s="4"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="4"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="2"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="2"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="2"/>
       <c r="C46" s="5"/>
@@ -3773,25 +4229,26 @@
   <mergeCells count="1">
     <mergeCell ref="C38:D38"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="38.0"/>
-    <col customWidth="1" min="3" max="3" width="39.71"/>
+    <col min="2" max="2" width="38" customWidth="1"/>
+    <col min="3" max="3" width="39.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="3" t="s">
@@ -3801,7 +4258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
@@ -3809,7 +4266,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>15</v>
       </c>
@@ -3817,7 +4274,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>17</v>
       </c>
@@ -3825,7 +4282,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>19</v>
       </c>
@@ -3833,7 +4290,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
@@ -3841,7 +4298,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>23</v>
       </c>
@@ -3849,7 +4306,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>25</v>
       </c>
@@ -3857,7 +4314,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>27</v>
       </c>
@@ -3865,7 +4322,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>29</v>
       </c>
@@ -3873,7 +4330,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>31</v>
       </c>
@@ -3881,271 +4338,272 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C33" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C34" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C35" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C37" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C38" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C39" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C40" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C41" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C42" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C43" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C44" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C45" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C46" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C47" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C48" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C49" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C50" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C51" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C52" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C53" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C54" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C55" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C56" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C57" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C58" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C59" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C60" s="6" t="s">
         <v>81</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="35.29"/>
-    <col customWidth="1" min="3" max="3" width="37.14"/>
+    <col min="2" max="2" width="35.33203125" customWidth="1"/>
+    <col min="3" max="3" width="37.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="3" t="s">
@@ -4155,7 +4613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -4163,42 +4621,42 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>165</v>
       </c>
@@ -4206,7 +4664,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>167</v>
       </c>
@@ -4214,7 +4672,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
         <v>169</v>
       </c>
@@ -4222,12 +4680,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>173</v>
       </c>
@@ -4235,46 +4693,46 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
       <c r="C15" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
       <c r="C17" s="6" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
       <c r="C18" s="6" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="6"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>187</v>
       </c>
@@ -4282,7 +4740,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
         <v>191</v>
       </c>
@@ -4290,7 +4748,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>193</v>
       </c>
@@ -4298,7 +4756,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
         <v>108</v>
       </c>
@@ -4306,13 +4764,13 @@
         <v>194</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
       <c r="C28" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
         <v>199</v>
       </c>
@@ -4320,12 +4778,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
         <v>202</v>
       </c>
@@ -4333,10 +4791,10 @@
         <v>204</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
     </row>
-    <row r="33">
+    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
         <v>206</v>
       </c>
@@ -4344,46 +4802,46 @@
         <v>207</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="6"/>
       <c r="C34" s="6" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="6"/>
       <c r="C35" s="6" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="6"/>
       <c r="C36" s="6" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B37" s="6"/>
       <c r="C37" s="6" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B38" s="6"/>
       <c r="C38" s="6" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B39" s="6"/>
     </row>
-    <row r="40">
+    <row r="40" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B40" s="6"/>
     </row>
-    <row r="41">
+    <row r="41" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B41" s="6"/>
     </row>
-    <row r="42">
+    <row r="42" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
         <v>220</v>
       </c>
@@ -4391,13 +4849,13 @@
         <v>204</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B43" s="6"/>
     </row>
-    <row r="44">
+    <row r="44" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B44" s="6"/>
     </row>
-    <row r="45">
+    <row r="45" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B45" s="6" t="s">
         <v>150</v>
       </c>
@@ -4405,7 +4863,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B46" s="6" t="s">
         <v>226</v>
       </c>
@@ -4413,7 +4871,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B47" s="6" t="s">
         <v>229</v>
       </c>
@@ -4422,20 +4880,21 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/GiaoDuc/Database/DB Edo v1.xlsx
+++ b/GiaoDuc/Database/DB Edo v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\github\BanGiaoNCSw\GiaoDuc\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8F3A39-3B94-4CD7-8E7C-B356853F6143}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B141D49B-9E7F-47BD-9F39-7DCEDFCC2BF5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="386">
   <si>
     <t>Bảng</t>
   </si>
@@ -1180,6 +1180,9 @@
   </si>
   <si>
     <t>esamsbeta</t>
+  </si>
+  <si>
+    <t>125.212.235.104</t>
   </si>
 </sst>
 </file>
@@ -1275,12 +1278,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1598,7 +1601,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1612,24 +1615,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>370</v>
       </c>
       <c r="B2" t="s">
@@ -1644,12 +1647,12 @@
       <c r="E2" t="s">
         <v>376</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="10" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>371</v>
       </c>
       <c r="B3" t="s">
@@ -1664,13 +1667,16 @@
       <c r="E3" t="s">
         <v>381</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="10" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>379</v>
+      </c>
+      <c r="B4" t="s">
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -1704,14 +1710,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -1721,7 +1727,7 @@
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="2" t="s">
         <v>5</v>
@@ -1731,7 +1737,7 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="2" t="s">
         <v>7</v>
@@ -1741,7 +1747,7 @@
       </c>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="2" t="s">
         <v>9</v>
@@ -1751,7 +1757,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="2" t="s">
         <v>11</v>
@@ -1761,7 +1767,7 @@
       </c>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="2" t="s">
         <v>82</v>
@@ -1773,7 +1779,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="2" t="s">
         <v>85</v>
@@ -1783,7 +1789,7 @@
       </c>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
         <v>87</v>
@@ -1793,7 +1799,7 @@
       </c>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
         <v>89</v>
@@ -1805,7 +1811,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="2" t="s">
         <v>92</v>
@@ -1815,7 +1821,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
         <v>94</v>
@@ -1825,7 +1831,7 @@
       </c>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="2" t="s">
         <v>96</v>
@@ -1835,7 +1841,7 @@
       </c>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="2" t="s">
         <v>98</v>
@@ -1845,7 +1851,7 @@
       </c>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="2" t="s">
         <v>100</v>
@@ -1855,7 +1861,7 @@
       </c>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="2" t="s">
         <v>102</v>
@@ -1865,7 +1871,7 @@
       </c>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="2" t="s">
         <v>104</v>
@@ -1875,7 +1881,7 @@
       </c>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="2" t="s">
         <v>106</v>
@@ -1885,7 +1891,7 @@
       </c>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="2" t="s">
         <v>108</v>
@@ -1897,7 +1903,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
         <v>111</v>
@@ -1907,7 +1913,7 @@
       </c>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="2" t="s">
         <v>113</v>
@@ -1917,13 +1923,13 @@
       </c>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>115</v>
       </c>
@@ -1931,7 +1937,7 @@
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="2" t="s">
         <v>116</v>
@@ -1943,7 +1949,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="2"/>
       <c r="C26" s="5" t="s">
@@ -1953,7 +1959,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="2"/>
       <c r="C27" s="5" t="s">
@@ -1963,7 +1969,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="2"/>
       <c r="C28" s="5" t="s">
@@ -1971,7 +1977,7 @@
       </c>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="2"/>
       <c r="C29" s="5" t="s">
@@ -1979,7 +1985,7 @@
       </c>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="2"/>
       <c r="C30" s="5" t="s">
@@ -1989,7 +1995,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="2"/>
       <c r="C31" s="5" t="s">
@@ -1999,7 +2005,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="2"/>
       <c r="C32" s="5" t="s">
@@ -2009,7 +2015,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="2"/>
       <c r="C33" s="5" t="s">
@@ -2019,7 +2025,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="2"/>
       <c r="C34" s="5" t="s">
@@ -2027,7 +2033,7 @@
       </c>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="2"/>
       <c r="C35" s="5" t="s">
@@ -2037,7 +2043,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="2"/>
       <c r="C36" s="5" t="s">
@@ -4174,8 +4180,8 @@
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="2"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="11"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="13"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
